--- a/dataset_integration.xlsx
+++ b/dataset_integration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guna\POCs\ML\nWave_effort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUNA FREAK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8205"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15885" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
@@ -90,51 +90,6 @@
     <t>InvokeSOAPoverJMS</t>
   </si>
   <si>
-    <t>Provider
-Message Format</t>
-  </si>
-  <si>
-    <t>Integration 
-Protocol</t>
-  </si>
-  <si>
-    <t>Intermediate 
-Data Format</t>
-  </si>
-  <si>
-    <t>Consumer 
-Message
-Format</t>
-  </si>
-  <si>
-    <t>Consumer
-Integration Protocol</t>
-  </si>
-  <si>
-    <t>Interface type</t>
-  </si>
-  <si>
-    <t>Total Number of Message Fields</t>
-  </si>
-  <si>
-    <t>Number of Rules
-Transformation</t>
-  </si>
-  <si>
-    <t>Number 
-of Operations/Methods/Flows</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>New or Existing</t>
-  </si>
-  <si>
-    <t>Exposed as
-API</t>
-  </si>
-  <si>
     <t>ConnectToDBAdapter, WriteToText</t>
   </si>
   <si>
@@ -163,12 +118,48 @@
   </si>
   <si>
     <t>ReadLargeFile,WriteToText</t>
+  </si>
+  <si>
+    <t>srcmsgformat</t>
+  </si>
+  <si>
+    <t>srcprotocol</t>
+  </si>
+  <si>
+    <t>int-dataformat</t>
+  </si>
+  <si>
+    <t>targetmsgformat</t>
+  </si>
+  <si>
+    <t>targetprotocol</t>
+  </si>
+  <si>
+    <t>Interface-type</t>
+  </si>
+  <si>
+    <t>msgfieldcount</t>
+  </si>
+  <si>
+    <t>rulecount</t>
+  </si>
+  <si>
+    <t>operationcount</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>new-existing</t>
+  </si>
+  <si>
+    <t>exposed-as-api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1002,50 +993,50 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
@@ -2329,7 +2320,7 @@
     </row>
     <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -2373,7 +2364,7 @@
     </row>
     <row r="32" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -2417,7 +2408,7 @@
     </row>
     <row r="33" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B33" s="5">
         <v>3</v>
@@ -2461,7 +2452,7 @@
     </row>
     <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
@@ -2505,7 +2496,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
@@ -2549,7 +2540,7 @@
     </row>
     <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3">
         <v>2</v>
@@ -2593,7 +2584,7 @@
     </row>
     <row r="37" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
@@ -2681,7 +2672,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
@@ -2725,7 +2716,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3">
         <v>5</v>
@@ -2769,7 +2760,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3">
         <v>5</v>
@@ -2813,7 +2804,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
@@ -2901,7 +2892,7 @@
     </row>
     <row r="44" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -2945,7 +2936,7 @@
     </row>
     <row r="45" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -3033,7 +3024,7 @@
     </row>
     <row r="47" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -3077,7 +3068,7 @@
     </row>
     <row r="48" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -3121,7 +3112,7 @@
     </row>
     <row r="49" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -3165,7 +3156,7 @@
     </row>
     <row r="50" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -3209,7 +3200,7 @@
     </row>
     <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -3253,7 +3244,7 @@
     </row>
     <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -3297,7 +3288,7 @@
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
@@ -3341,7 +3332,7 @@
     </row>
     <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
@@ -3385,7 +3376,7 @@
     </row>
     <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
@@ -3429,7 +3420,7 @@
     </row>
     <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B56" s="3">
         <v>5</v>
@@ -3473,7 +3464,7 @@
     </row>
     <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B57" s="3">
         <v>5</v>
@@ -3517,7 +3508,7 @@
     </row>
     <row r="58" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B58" s="3">
         <v>5</v>
